--- a/scraping-bot/script/covid19-file.xlsx
+++ b/scraping-bot/script/covid19-file.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\LB18Z0425\Joho\高度情報化班\A_★その他新規案件等\03_新型コロナウィルス県ホームページ\まいにちの更新作業\0419\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\LB18Z0425\Joho\高度情報化班\A_★その他新規案件等\03_新型コロナウィルス県ホームページ\まいにちの更新作業\0421\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,14 +15,14 @@
     <sheet name="yousei" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">yousei!$A$1:$I$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">yousei!$A$1:$I$44</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="11">
   <si>
     <t>退院（累計）</t>
     <rPh sb="0" eb="2">
@@ -470,13 +470,13 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F58" sqref="F58"/>
+      <selection pane="bottomRight" activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1729,6 +1729,64 @@
         <v>127</v>
       </c>
     </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A43" s="6">
+        <v>43941</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="1">
+        <v>5744</v>
+      </c>
+      <c r="D43" s="1">
+        <v>524</v>
+      </c>
+      <c r="E43" s="1">
+        <v>347</v>
+      </c>
+      <c r="F43" s="1">
+        <v>319</v>
+      </c>
+      <c r="G43" s="1">
+        <v>28</v>
+      </c>
+      <c r="H43" s="1">
+        <v>22</v>
+      </c>
+      <c r="I43" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A44" s="6">
+        <v>43942</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="1">
+        <v>5972</v>
+      </c>
+      <c r="D44" s="1">
+        <v>543</v>
+      </c>
+      <c r="E44" s="1">
+        <v>365</v>
+      </c>
+      <c r="F44" s="1">
+        <v>336</v>
+      </c>
+      <c r="G44" s="1">
+        <v>29</v>
+      </c>
+      <c r="H44" s="1">
+        <v>22</v>
+      </c>
+      <c r="I44" s="1">
+        <v>156</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
